--- a/InputFiles/CDS/TC01_CDS_phs003432.xlsx
+++ b/InputFiles/CDS/TC01_CDS_phs003432.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\sowjanya0925\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B20B08-EF22-4C5D-8C6B-251F739D076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E6513D-C5BC-46D2-A134-C37C6694972D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -173,41 +173,66 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT
+    <t>WITH Distinct_Samples AS (
+    SELECT DISTINCT
+        sp.participant_id,
+        sp.study_participant_id,
+        s.study_name,
+        s.phs_accession,
+        sp.gender,
+        smp.sample_id
+    FROM 
+        df_participant sp
+    JOIN 
+        df_study s ON sp."study.phs_accession" = s.phs_accession
+    JOIN 
+        df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+    JOIN
+        df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
+    JOIN
+        df_program p ON p.program_acronym = s."program.program_acronym"
+    JOIN
+        df_file f1 ON f1."sample.sample_id" = smp.sample_id
+    JOIN
+        df_genomic_info gi ON gi."file.file_id" = f1.file_id
+    WHERE 
+        s.phs_accession = 'phs003432'
+),
+Sample_Limit AS (
+    SELECT
+        participant_id,
+        study_participant_id,
+        study_name,
+        phs_accession,
+        sample_id,
+        ROW_NUMBER() OVER (PARTITION BY study_participant_id ORDER BY sample_id) AS rn
+    FROM 
+        Distinct_Samples
+)
+SELECT
     f1.file_name AS "File Name",
     s.study_name AS "Study Name",
     s.phs_accession AS "Accession",
     sp.participant_id AS "Participant Id",
-    COALESCE((
-        SELECT
-            REPLACE(GROUP_CONCAT(CASE WHEN rn &lt;= 5 THEN smp.sample_id ELSE NULL END, ', '), ', , ', ', ') ||
-            CASE WHEN MAX(rn) &gt; 5 THEN ', ...' ELSE '' END
-        FROM (
-            SELECT
-                smp.sample_id,
-                ROW_NUMBER() OVER (ORDER BY smp.sample_id) AS rn
-            FROM df_sample smp
-            WHERE smp."participant.study_participant_id" = sp.study_participant_id
-        ) smp
-    ), '') AS "Sample Id",
+    COALESCE(STRING_AGG(
+        CASE WHEN sl.rn &lt;= 5 THEN sl.sample_id ELSE NULL END, ', '
+    ) || CASE WHEN MAX(sl.rn) &gt; 5 THEN ', ...' ELSE '' END, '') AS "Sample Id",
     f1.file_type AS "File Type",
     gi.library_strategy AS "Library Strategy"
 FROM 
     df_study s
 INNER JOIN 
     df_participant sp ON sp."study.phs_accession" = s.phs_accession
-INNER JOIN  
+INNER JOIN 
     df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
 INNER JOIN 
     df_file f1 ON f1."sample.sample_id" = smp.sample_id
 INNER JOIN
     df_genomic_info gi ON gi."file.file_id" = f1.file_id
-INNER JOIN
-    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
-INNER JOIN
-    df_program p ON p.program_acronym = s."program.program_acronym"
+LEFT JOIN 
+    Sample_Limit sl ON sl.study_participant_id = sp.study_participant_id
 WHERE 
-    s.phs_accession = 'phs003432' 
+    s.phs_accession = 'phs003432'
 GROUP BY
     f1.file_name,
     s.study_name,
@@ -609,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
